--- a/config_Release/deposit_server.xlsx
+++ b/config_Release/deposit_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>疯狂捕鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tantanle</t>
   </si>
   <si>
@@ -167,9 +163,6 @@
   </si>
   <si>
     <t>fishing_3d_game</t>
-  </si>
-  <si>
-    <t>jing_yu_kuai_pao</t>
   </si>
   <si>
     <t>|游戏备注</t>
@@ -191,6 +184,14 @@
   <si>
     <t>3,8</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -628,7 +629,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -674,10 +675,10 @@
         <v>15000</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -723,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -758,7 +759,7 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>3.0000000000000001E-3</v>
@@ -771,7 +772,7 @@
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>3.0000000000000001E-3</v>
@@ -786,7 +787,7 @@
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>3.0000000000000001E-3</v>
@@ -801,7 +802,7 @@
     </row>
     <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
         <v>3.0000000000000001E-3</v>
@@ -815,7 +816,7 @@
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5">
         <v>3.0000000000000001E-3</v>
@@ -830,7 +831,7 @@
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <v>3.0000000000000001E-3</v>
@@ -845,7 +846,7 @@
     </row>
     <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <v>3.0000000000000001E-3</v>
@@ -858,17 +859,18 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -888,16 +890,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -955,13 +957,6 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -976,7 +971,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_Release/deposit_server.xlsx
+++ b/config_Release/deposit_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id|</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <t>西游消消乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +735,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,7 +883,15 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>

--- a/config_Release/deposit_server.xlsx
+++ b/config_Release/deposit_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id|</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,27 +144,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>tantanle</t>
-  </si>
-  <si>
-    <t>xiaoxiaole</t>
-  </si>
-  <si>
-    <t>xiaoxiaole_caishen</t>
-  </si>
-  <si>
-    <t>xiaoxiaole_shuihu</t>
-  </si>
-  <si>
-    <t>zajindan</t>
-  </si>
-  <si>
-    <t>fishing_game</t>
-  </si>
-  <si>
-    <t>fishing_3d_game</t>
-  </si>
-  <si>
     <t>|游戏备注</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -186,19 +165,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>xiaoxiaole_xiyou</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>西游消消乐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>lwzb_game</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>龙王争霸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国消消乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_spend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_sanguo_award</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +675,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -683,10 +698,10 @@
         <v>15000</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -735,7 +750,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -765,9 +780,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5">
         <v>3.0000000000000001E-3</v>
@@ -778,9 +793,9 @@
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>3.0000000000000001E-3</v>
@@ -793,9 +808,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5">
         <v>3.0000000000000001E-3</v>
@@ -808,9 +823,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5">
         <v>3.0000000000000001E-3</v>
@@ -822,9 +837,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <v>3.0000000000000001E-3</v>
@@ -837,9 +852,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5">
         <v>3.0000000000000001E-3</v>
@@ -852,9 +867,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <v>3.0000000000000001E-3</v>
@@ -867,38 +882,46 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
+    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>

--- a/config_Release/deposit_server.xlsx
+++ b/config_Release/deposit_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="cfg|配置" sheetId="31" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>deal_time|变动时间间隔，秒</t>
   </si>
   <si>
-    <t>80,135</t>
-  </si>
-  <si>
     <t>3,8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,6 +212,10 @@
   <si>
     <t>xiaoxiaole_sanguo_award</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -651,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,16 +693,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -749,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -782,7 +783,7 @@
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5">
         <v>3.0000000000000001E-3</v>
@@ -795,7 +796,7 @@
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5">
         <v>3.0000000000000001E-3</v>
@@ -810,7 +811,7 @@
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5">
         <v>3.0000000000000001E-3</v>
@@ -825,7 +826,7 @@
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5">
         <v>3.0000000000000001E-3</v>
@@ -839,7 +840,7 @@
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5">
         <v>3.0000000000000001E-3</v>
@@ -854,7 +855,7 @@
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <v>3.0000000000000001E-3</v>
@@ -869,7 +870,7 @@
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>3.0000000000000001E-3</v>
@@ -884,13 +885,13 @@
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -899,13 +900,13 @@
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -914,13 +915,13 @@
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
